--- a/exel_tracker/devops_learning_tracker_complete.xlsx
+++ b/exel_tracker/devops_learning_tracker_complete.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t xml:space="preserve">Неделя</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Чем FastAPI отличается от Flask?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⬜</t>
   </si>
   <si>
     <t xml:space="preserve">Что такое WSGI и ASGI?</t>
@@ -238,7 +235,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +246,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFA6"/>
         <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -311,7 +314,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -336,15 +339,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,6 +364,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,7 +439,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -627,7 +634,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,7 +643,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="89.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="62.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,9 +676,7 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
@@ -682,11 +687,9 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
@@ -697,11 +700,9 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
@@ -712,72 +713,61 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,446 +775,359 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
+      <c r="B19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="B21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11" t="s">
+      <c r="B22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
+      <c r="B23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="s">
+      <c r="B24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="C24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="B25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11" t="s">
+      <c r="B26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11" t="s">
+      <c r="B27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11" t="s">
+      <c r="B28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="C29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="B30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14" t="s">
+      <c r="B31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="n">
+      <c r="C32" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="B33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="n">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14" t="s">
+      <c r="B34" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="n">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14" t="s">
+      <c r="B35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="n">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14" t="s">
+      <c r="B36" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="n">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14" t="s">
+      <c r="B37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="n">
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14" t="s">
+      <c r="B38" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/exel_tracker/devops_learning_tracker_complete.xlsx
+++ b/exel_tracker/devops_learning_tracker_complete.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,6 +769,7 @@
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
@@ -781,6 +782,7 @@
       <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
